--- a/biology/Biologie cellulaire et moléculaire/Oléoplaste/Oléoplaste.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Oléoplaste/Oléoplaste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ol%C3%A9oplaste</t>
+          <t>Oléoplaste</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les oléoplastes sont des organites spécifiques des cellules végétales spécialisés dans le stockage des lipides, essentiellement sous forme de plastoglobules (gouttelettes lipidiques sphériques).
 Ce sont des plastes sans pigments, et plus spécifiquement des leucoplastes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ol%C3%A9oplaste</t>
+          <t>Oléoplaste</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Comparaison</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Proplaste
 Plaste
